--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed4/result_data_KNN.xlsx
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.499999999999998</v>
+        <v>-8.207999999999998</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.970000000000001</v>
+        <v>5.814</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.944</v>
+        <v>-21.396</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.784000000000001</v>
+        <v>5.927</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.232</v>
+        <v>-22.116</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.944</v>
+        <v>6.040000000000001</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.152000000000001</v>
+        <v>-8.202000000000002</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.714</v>
+        <v>-21.886</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.13</v>
+        <v>-22.055</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>7.590000000000001</v>
+        <v>8.395999999999999</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.168</v>
+        <v>-20.32</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.612</v>
+        <v>-21.396</v>
       </c>
       <c r="B26" t="n">
-        <v>5.562</v>
+        <v>5.647</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.356</v>
+        <v>-21.188</v>
       </c>
       <c r="B27" t="n">
-        <v>5.65</v>
+        <v>5.695000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.512</v>
+        <v>-8.205</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.912</v>
+        <v>-21.722</v>
       </c>
       <c r="B29" t="n">
-        <v>6.662000000000001</v>
+        <v>6.068</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -998,7 +998,7 @@
         <v>-12.22</v>
       </c>
       <c r="D33" t="n">
-        <v>-8.024000000000001</v>
+        <v>-7.627</v>
       </c>
       <c r="E33" t="n">
         <v>17.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.846</v>
+        <v>-20.111</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.832000000000001</v>
+        <v>-7.532000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.872</v>
+        <v>-21.095</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.068000000000001</v>
+        <v>8.847000000000001</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,13 +1077,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.256</v>
+        <v>5.920000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.827999999999999</v>
+        <v>-8.821</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.046000000000001</v>
+        <v>-7.801</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.562</v>
+        <v>-7.465999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.604</v>
+        <v>-21.704</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.565</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1230,13 +1230,13 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.958</v>
+        <v>6.043000000000001</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-8.176000000000002</v>
+        <v>-8.051</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1298,13 +1298,13 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.351999999999999</v>
+        <v>5.465</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.224</v>
+        <v>-8.190000000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.57</v>
+        <v>5.395</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.838000000000001</v>
+        <v>-8.306999999999999</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1363,10 +1363,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.05</v>
+        <v>-21.682</v>
       </c>
       <c r="B55" t="n">
-        <v>6.95</v>
+        <v>6.206</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.22</v>
+        <v>-22.258</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.343999999999999</v>
+        <v>-8.231</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.965999999999999</v>
+        <v>-7.904000000000001</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.109999999999999</v>
+        <v>-7.336999999999999</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.651999999999999</v>
+        <v>-6.853999999999999</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.748</v>
+        <v>-21.641</v>
       </c>
       <c r="B69" t="n">
-        <v>5.473999999999999</v>
+        <v>5.857</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,13 +1621,13 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.159999999999999</v>
+        <v>5.667</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.118</v>
+        <v>-6.976000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-21.85</v>
+        <v>-22.022</v>
       </c>
       <c r="B76" t="n">
-        <v>5.248</v>
+        <v>5.055</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.154</v>
+        <v>-20.192</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,13 +1808,13 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.604000000000001</v>
+        <v>6.197000000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.156000000000001</v>
+        <v>-7.413999999999999</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.336</v>
+        <v>-22.143</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-19.91</v>
+        <v>-20.292</v>
       </c>
       <c r="B83" t="n">
-        <v>8.571999999999999</v>
+        <v>7.202</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.874</v>
+        <v>-8.198</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.82</v>
+        <v>-21.941</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>6.43</v>
+        <v>7.105</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.602000000000001</v>
+        <v>-7.467000000000001</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-22.238</v>
+        <v>-22.053</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.013999999999999</v>
+        <v>-8.101000000000001</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>5.116999999999999</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.302000000000001</v>
+        <v>7.575</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
